--- a/excel/Aug2023.xlsx
+++ b/excel/Aug2023.xlsx
@@ -4640,7 +4640,7 @@
       <c r="B242" s="10" t="n"/>
       <c r="C242" s="17" t="inlineStr">
         <is>
-          <t>Null</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D242" s="18" t="n"/>
